--- a/Main/test/results/positionsTDOA.xlsx
+++ b/Main/test/results/positionsTDOA.xlsx
@@ -634,57 +634,59 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.350470244656439</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1.3891002828267078</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.4747293632694014</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8264270884440803</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.2420109919729887</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>52.94874189173775</t>
+          <t>52.95</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-14.516833211260566</t>
+          <t>-14.52</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-9.980970684337091</t>
+          <t>-9.98</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3.212227248712127</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-0.7161295201233443</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -694,127 +696,127 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.1246622865134899</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-3.723748334514511</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.05115210858023888</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.7672816287035831</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-1.6873354808961212</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>57.56093054193676</t>
+          <t>57.56</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.12271427123848463</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.03897568237432621</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.523934194905362</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-0.8062573110779094</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.8604503194114982</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-2.3678053838589954</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2.3708625232299125</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>3.6440635728259023</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-0.889995899942068</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1.0916213270038075</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-0.6773905206460799</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-0.887012892682848</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-1.7300361652755534</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>-3.746367789986374</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>-1.8593414374275248</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.8645044790787852</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>-0.29551834064537474</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>68.89071648159064</t>
+          <t>68.89</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>-0.05069162521724893</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -824,7 +826,7 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -832,187 +834,189 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.503926570397162</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-1.2867960656662298</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>47.920843954126305</t>
+          <t>47.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.031035522765034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.2420109919729887</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.5537794094610895</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-13.800703691137223</t>
+          <t>-13.8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-9.4694495985347</t>
+          <t>-9.47</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3.212227248712127</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.30691265148143326</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-222.71628075836009</t>
+          <t>-222.72</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.0735101779332539</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-3.723748334514511</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.15345632574071663</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.30691265148143326</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-1.8407918066368372</t>
+          <t>-1.84</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>73.06001944174913</t>
+          <t>73.06</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.22501848839896252</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.03897568237432621</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.4727820863251241</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-0.9597136368186272</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.8604503194114982</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-58.37936427922057</t>
+          <t>-58.38</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2.3708625232299125</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>43.38925193967151</t>
+          <t>43.39</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-0.889995899942068</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>18.022969267062873</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-0.62623841206584</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-1.2962297613247595</t>
+          <t>-1.3</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>-1.7811882738557934</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>-3.6952156814061303</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>-1.8593414374275248</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.7622002619183053</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>-0.09090990632441895</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>-2.3130186621018765</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>-0.20414795095796676</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1022,7 +1026,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>-0.7161295201233443</t>
+          <t>-0.72</t>
         </is>
       </c>
     </row>
@@ -1030,197 +1034,199 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.350470244656439</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.4402523914069458</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.4235772546891654</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.8775791970243183</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.1397067748125087</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.7583878437820415</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-13.493791039655791</t>
+          <t>-13.49</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-9.4694495985347</t>
+          <t>-9.47</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3.1610751401318833</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-0.7161295201233443</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.0735101779332539</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-3.7749004430947544</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.20460843432095552</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.6138253029628665</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-1.6873354808961212</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.549371646575188</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.1738663798187226</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.06332853478615169</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.523934194905362</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-0.7551052024976715</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.8604503194114982</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-2.3678053838589954</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2.3197104146496725</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>59.09294927380485</t>
+          <t>59.09</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-0.9923001171025458</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>20.52942258749458</t>
+          <t>20.53</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-0.575086303485602</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-0.887012892682848</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>-1.7300361652755534</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>-3.6952156814061303</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>-1.9104935460077608</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>28.668209375123954</t>
+          <t>28.67</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>-0.39782255780585213</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>-2.2618665535216405</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>-0.10184373379748886</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-0.35806476006167215</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>-0.30691265148143326</t>
+          <t>-0.31</t>
         </is>
       </c>
     </row>
@@ -1228,197 +1234,199 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>81.21918279989207</t>
+          <t>81.22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-14.330583753627144</t>
+          <t>-14.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.4235772546891654</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.7752749798638403</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.1908588833927447</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.269908929584434</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-9.043557593175008</t>
+          <t>-9.04</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-9.264841164213749</t>
+          <t>-9.26</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3.1099230315516473</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.5626731943826278</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.688019583147883</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.1246622865134899</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-63.98093224203591</t>
+          <t>-63.98</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.20460843432095552</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.7672816287035831</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-1.7384875894763574</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.549371646575188</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.22501848839896252</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.06332853478615169</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.575086303485602</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-18.04451790261841</t>
+          <t>-18.04</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.8604503194114982</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-2.4701096010194754</t>
+          <t>-2.47</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2.3197104146496725</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>3.5929114642456663</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-0.9411480085223057</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>1.1427734355840475</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-0.575086303485602</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-0.8358607841026081</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>-1.7300361652755534</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>-3.6952156814061303</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>-1.9104935460077608</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.8133523704985413</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>-0.39782255780585213</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>-2.3641707706821204</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>-0.10184373379748886</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-0.30691265148143326</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>-0.5115210858023889</t>
+          <t>-0.51</t>
         </is>
       </c>
     </row>
@@ -1426,77 +1434,79 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.248166027495968</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-1.4914044999871856</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.5258814718496452</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.8775791970243183</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-2.2420109919729887</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.065300495263474</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-13.544943148236028</t>
+          <t>-13.54</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-9.367145381374229</t>
+          <t>-9.37</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3.1610751401318833</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0.15345632574071663</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-33.09541425141455</t>
+          <t>-33.1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1.1758143950937299</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-3.7749004430947544</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.5115210858023889</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1506,117 +1516,117 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-1.7384875894763574</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1.447067429414716</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>11.427330267471275</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>16.458802536631005</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.575086303485602</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-0.9085615282383873</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.8604503194114982</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-34.286721137928055</t>
+          <t>-34.29</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2.3197104146496725</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>106.25519338478509</t>
+          <t>106.26</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-0.7365395742013501</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1.0916213270038075</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-0.6773905206460799</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-46.2077810947745</t>
+          <t>-46.21</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>-1.7811882738557934</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>-42.570818202387684</t>
+          <t>-42.57</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>-1.9104935460077608</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>-220.4425594106394</t>
+          <t>-220.44</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>-0.1420620149046579</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>-38.93792840555291</t>
+          <t>-38.94</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>-0.15299584237772684</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-6.8543825497520094</t>
+          <t>-6.85</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>-0.15345632574071663</t>
+          <t>-0.15</t>
         </is>
       </c>
     </row>
@@ -1624,197 +1634,199 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.401622353236675</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-1.5425566085674236</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-224.1572215841643</t>
+          <t>-224.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.8775791970243183</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.2420109919729887</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7.014148386683239</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-85.66941624637285</t>
+          <t>-85.67</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-53.05104610889823</t>
+          <t>-53.05</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3.1099230315516473</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.20460843432095552</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.10230421716047776</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1.1758143950937299</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-3.7749004430947544</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.20460843432095552</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.20460843432095552</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-1.7384875894763574</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.6005237551554319</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.22501848839896252</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-1.3421312492921225</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.4727820863251241</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-0.9597136368186272</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0.8604503194114982</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-2.4189574924392314</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2.3197104146496725</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>3.6440635728259023</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>-0.8388437913618279</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1.0916213270038075</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-0.575086303485602</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-0.887012892682848</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-1.7300361652755534</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>-3.746367789986374</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-1.9104935460077608</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.8645044790787852</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>-0.44897466638609107</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>-2.3130186621018765</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>-0.05069162521724893</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-0.40921686864191104</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -1822,57 +1834,59 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.350470244656439</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-1.3891002828267078</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.4235772546891654</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.8775791970243183</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-164.85456416855237</t>
+          <t>-164.85</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7.116452603843718</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-8.838949158854048</t>
+          <t>-8.84</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-7.5768215810658655</t>
+          <t>-7.58</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3.212227248712127</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-0.5115210858023889</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1882,137 +1896,137 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1.1246622865134899</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-3.7749004430947544</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.15345632574071663</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.7672816287035831</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-1.6873354808961212</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.6005237551554319</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.07156216265824471</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.06332853478615169</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.575086303485602</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>21.342605704165525</t>
+          <t>21.34</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.8604503194114982</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-2.3166532752787594</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2.3197104146496725</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>3.541759355665422</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-0.9411480085223057</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>1.1427734355840475</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-0.62623841206584</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-0.8358607841026081</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>-1.7300361652755534</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>-3.746367789986374</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>-1.9104935460077608</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.8133523704985413</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>-0.34667044922561324</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>-2.3641707706821204</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>-0.2553000595382047</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>-0.15345632574071663</t>
+          <t>-0.15</t>
         </is>
       </c>
     </row>
@@ -2020,187 +2034,189 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.299318136076204</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-1.4402523914069458</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.4235772546891654</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.8264270884440803</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-2.2931631005532247</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7.065300495263474</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-7.764754878669029</t>
+          <t>-7.76</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-7.42336525532515</t>
+          <t>-7.42</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>72.31872594061485</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.46036897722214987</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-84.75904391745581</t>
+          <t>-84.76</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1.1246622865134899</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-3.723748334514511</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.15345632574071663</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>4.194472903579588</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-1.7896396980565972</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-17.786125396755104</t>
+          <t>-17.79</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.07156216265824471</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.03897568237432621</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.4727820863251241</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-0.9597136368186272</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.8604503194114982</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-50.91115642650569</t>
+          <t>-50.91</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2.3708625232299125</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>3.5929114642456663</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>-0.8388437913618279</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>1.0404692184235678</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-0.575086303485602</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-24.672743382493927</t>
+          <t>-24.67</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>-1.7300361652755534</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>-69.78373996707477</t>
+          <t>-69.78</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>-1.9104935460077608</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>39.512456394134595</t>
+          <t>39.51</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>-0.039757797744180014</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>-2.2618665535216405</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>-0.10184373379748886</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -2210,7 +2226,7 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>-0.6138253029628665</t>
+          <t>-0.61</t>
         </is>
       </c>
     </row>
@@ -2218,57 +2234,59 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.248166027495968</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.55238318797373</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.4747293632694014</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.8775791970243183</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-2.2420109919729887</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6.962996278103002</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-7.764754878669029</t>
+          <t>-7.76</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-7.42336525532515</t>
+          <t>-7.42</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3.1099230315516473</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.5626731943826278</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2278,137 +2296,137 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1.0735101779332539</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-70.6818584660472</t>
+          <t>-70.68</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.20460843432095552</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.7672816287035831</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-1.6873354808961212</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1.549371646575188</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.020410054078006737</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.012176426205911757</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.4727820863251241</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-0.9597136368186272</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.8092982108312621</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-2.3678053838589954</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2.3197104146496725</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>60.883273074113205</t>
+          <t>60.88</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>-10.506592313026976</t>
+          <t>-10.51</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>17.102231312618578</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-0.62623841206584</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-0.8358607841026081</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>-1.7300361652755534</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>-3.746367789986374</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>-1.9104935460077608</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>37.72213259382624</t>
+          <t>37.72</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>-0.2443662320651358</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>-2.3641707706821204</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>-0.2553000595382047</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-0.05115210858023888</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>-0.46036897722214987</t>
+          <t>-0.46</t>
         </is>
       </c>
     </row>
@@ -2416,57 +2434,59 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-102.9284080889679</t>
+          <t>-102.93</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-16.990493399799565</t>
+          <t>-16.99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.4747293632694014</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.031035522765034</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-2.2931631005532247</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6.860692060942522</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-83.98139666322496</t>
+          <t>-83.98</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-7.32106103816467</t>
+          <t>-7.32</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12.16384625025393</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-0.6138253029628665</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2476,137 +2496,137 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1.1246622865134899</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-3.7749004430947544</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.30691265148143326</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.15345632574071663</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-1.7384875894763574</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1.549371646575188</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.22501848839896252</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.03897568237432621</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.4727820863251241</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-0.8574094196581493</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.8604503194114982</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-40.936495253359105</t>
+          <t>-40.94</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2.3197104146496725</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>3.5929114642456663</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-0.7876916827815901</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0.9893171098433278</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-0.62623841206584</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-0.887012892682848</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>-1.7811882738557934</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>-3.6952156814061303</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>-1.9104935460077608</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.8133523704985413</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>-0.34667044922561324</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>-2.3130186621018765</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>-0.2553000595382047</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>-0.15345632574071663</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>-0.10230421716047776</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -2621,14 +2641,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Pass</t>
@@ -2646,64 +2666,64 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
           <t>Pass</t>
@@ -2751,7 +2771,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
